--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1125771.714060873</v>
+        <v>-1126484.015883917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159989</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>94.02670232801083</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.84578426956975</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>188.4979333192472</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>99.67770141348032</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>97.5282484740909</v>
       </c>
       <c r="T12" t="n">
         <v>188.4979333192472</v>
@@ -1506,7 +1506,7 @@
         <v>59.07980534382081</v>
       </c>
       <c r="V12" t="n">
-        <v>188.4979333192472</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W12" t="n">
         <v>88.55631942394379</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240824</v>
+        <v>39.83928702956914</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
-        <v>139.2329735600866</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>9.36988737129812</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.814526416652</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693651</v>
+        <v>19.97785755934743</v>
       </c>
       <c r="T15" t="n">
         <v>36.82265945242248</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.5737276815661</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.3350433677226</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.190398939703052</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>188.4979333192472</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>92.85240444033204</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C20" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G20" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.5737276815661</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2163,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>137.3386294037296</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>183.6125381658607</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C23" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
         <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156614</v>
+        <v>49.5737276815661</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="24">
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>30.96466506243936</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>146.4376822541493</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4979333192474</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>89.08831953535874</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140129</v>
+        <v>36.42092909776689</v>
       </c>
       <c r="W27" t="n">
         <v>53.21983305301063</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469645</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>9.899535610024657</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444721</v>
+        <v>14.03224403444722</v>
       </c>
       <c r="T29" t="n">
         <v>8.981130875818293</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>69.60108460871557</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -2925,10 +2925,10 @@
         <v>1.486173081489319</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V30" t="n">
-        <v>117.6595145598273</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>53.21983305301063</v>
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>136.0366459494763</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9709236054903</v>
+        <v>0.6584632146251077</v>
       </c>
       <c r="U33" t="n">
         <v>22.91560910602344</v>
@@ -3168,13 +3168,13 @@
         <v>26.33646052453707</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614642</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605434</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160446</v>
+        <v>50.01095597003496</v>
       </c>
     </row>
     <row r="34">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>63.75829529671284</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161016</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>24.33978122672936</v>
       </c>
     </row>
     <row r="37">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>97.12348243371054</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,22 +3624,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.0766197268315</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D41" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E41" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G41" t="n">
         <v>177.8284037471725</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.14077227717371</v>
+        <v>9.140772277173738</v>
       </c>
       <c r="V41" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W41" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X41" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>39.72613402942294</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>140.1606913951229</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V43" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W43" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1957281657028</v>
       </c>
       <c r="D44" t="n">
-        <v>96.76239042675124</v>
+        <v>96.76239042675127</v>
       </c>
       <c r="E44" t="n">
         <v>130.4691428461601</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1894804245374</v>
+        <v>162.1894804245375</v>
       </c>
       <c r="G44" t="n">
         <v>177.8284037471725</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.140772277173706</v>
+        <v>9.140772277173735</v>
       </c>
       <c r="V44" t="n">
-        <v>79.87001439367597</v>
+        <v>79.870014393676</v>
       </c>
       <c r="W44" t="n">
-        <v>96.88669461029085</v>
+        <v>96.88669461029087</v>
       </c>
       <c r="X44" t="n">
         <v>118.7729450792301</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.2757982029738</v>
+        <v>141.2757982029739</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>30.39062515117006</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,16 +4098,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R45" t="n">
-        <v>0.6740180623879314</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64678775308956</v>
+        <v>47.64678775308959</v>
       </c>
       <c r="V46" t="n">
-        <v>4.099245968973861</v>
+        <v>4.099245968973889</v>
       </c>
       <c r="W46" t="n">
-        <v>49.30093787385928</v>
+        <v>49.30093787385931</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4796,55 +4796,55 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42319711481442</v>
+        <v>3.551813413473549</v>
       </c>
       <c r="N8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="O8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="P8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y8" t="n">
         <v>6.719070557086891</v>
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N9" t="n">
         <v>9.629741416440567</v>
@@ -4923,10 +4923,10 @@
         <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.1112778142979</v>
+        <v>300.4582545112549</v>
       </c>
       <c r="C11" t="n">
-        <v>176.3160927353979</v>
+        <v>300.4582545112549</v>
       </c>
       <c r="D11" t="n">
-        <v>15.07983466553978</v>
+        <v>300.4582545112549</v>
       </c>
       <c r="E11" t="n">
-        <v>15.07983466553978</v>
+        <v>110.0563016635305</v>
       </c>
       <c r="F11" t="n">
-        <v>15.07983466553978</v>
+        <v>110.0563016635305</v>
       </c>
       <c r="G11" t="n">
         <v>15.07983466553978</v>
@@ -5042,49 +5042,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021288</v>
+        <v>115.4902538590854</v>
       </c>
       <c r="L11" t="n">
-        <v>162.153655882889</v>
+        <v>162.2110963398456</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0155549698363</v>
+        <v>243.0729954267929</v>
       </c>
       <c r="N11" t="n">
-        <v>429.628508955891</v>
+        <v>318.4008885624853</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485402</v>
+        <v>505.0138425485401</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>666.4395714324994</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="R11" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S11" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T11" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U11" t="n">
-        <v>753.991733276989</v>
+        <v>681.262160206704</v>
       </c>
       <c r="V11" t="n">
-        <v>753.991733276989</v>
+        <v>681.262160206704</v>
       </c>
       <c r="W11" t="n">
-        <v>753.991733276989</v>
+        <v>681.262160206704</v>
       </c>
       <c r="X11" t="n">
-        <v>730.9151835097468</v>
+        <v>681.262160206704</v>
       </c>
       <c r="Y11" t="n">
-        <v>540.5132306620224</v>
+        <v>490.8602073589796</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>125.2289142461241</v>
+        <v>24.54436736382071</v>
       </c>
       <c r="C12" t="n">
-        <v>115.7643815478431</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7643815478431</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E12" t="n">
-        <v>115.7643815478431</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F12" t="n">
-        <v>115.7643815478431</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G12" t="n">
         <v>15.07983466553978</v>
@@ -5127,43 +5127,43 @@
         <v>170.3760798097943</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188891</v>
+        <v>670.3666200188889</v>
       </c>
       <c r="P12" t="n">
-        <v>753.991733276989</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R12" t="n">
-        <v>753.991733276989</v>
+        <v>610.9722821020003</v>
       </c>
       <c r="S12" t="n">
-        <v>740.4134230073561</v>
+        <v>512.4588998049388</v>
       </c>
       <c r="T12" t="n">
-        <v>550.0114701596316</v>
+        <v>322.0569469572143</v>
       </c>
       <c r="U12" t="n">
-        <v>490.3348991052671</v>
+        <v>262.3803759028499</v>
       </c>
       <c r="V12" t="n">
-        <v>299.9329462575427</v>
+        <v>199.2483993752393</v>
       </c>
       <c r="W12" t="n">
-        <v>210.4821185565893</v>
+        <v>109.797571674286</v>
       </c>
       <c r="X12" t="n">
-        <v>170.9218657420411</v>
+        <v>70.2373188597377</v>
       </c>
       <c r="Y12" t="n">
-        <v>125.2289142461241</v>
+        <v>24.54436736382071</v>
       </c>
     </row>
     <row r="13">
@@ -5176,43 +5176,43 @@
         <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482427</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D13" t="n">
-        <v>59.2899647781578</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E13" t="n">
-        <v>95.39736648959217</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F13" t="n">
-        <v>95.39736648959217</v>
+        <v>53.90900278081472</v>
       </c>
       <c r="G13" t="n">
-        <v>95.39736648959217</v>
+        <v>53.90900278081472</v>
       </c>
       <c r="H13" t="n">
-        <v>95.39736648959217</v>
+        <v>53.90900278081472</v>
       </c>
       <c r="I13" t="n">
-        <v>108.5597096138439</v>
+        <v>67.07134590506645</v>
       </c>
       <c r="J13" t="n">
-        <v>140.8345066020057</v>
+        <v>124.4009159095237</v>
       </c>
       <c r="K13" t="n">
-        <v>250.8416077757448</v>
+        <v>124.4009159095237</v>
       </c>
       <c r="L13" t="n">
-        <v>250.8416077757448</v>
+        <v>268.9373993353638</v>
       </c>
       <c r="M13" t="n">
-        <v>402.2436925423774</v>
+        <v>381.4539747889301</v>
       </c>
       <c r="N13" t="n">
-        <v>402.2436925423774</v>
+        <v>381.4539747889301</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423774</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="P13" t="n">
         <v>520.7166611426682</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>613.3523660445794</v>
+        <v>245.7234915835361</v>
       </c>
       <c r="C14" t="n">
-        <v>439.5571809656794</v>
+        <v>245.7234915835361</v>
       </c>
       <c r="D14" t="n">
-        <v>439.5571809656794</v>
+        <v>245.7234915835361</v>
       </c>
       <c r="E14" t="n">
-        <v>439.5571809656794</v>
+        <v>55.32153873581164</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1552281179549</v>
+        <v>55.32153873581164</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179549</v>
+        <v>55.32153873581164</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554812</v>
+        <v>55.32153873581164</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553978</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>184.786695952239</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L14" t="n">
-        <v>305.437932169187</v>
+        <v>162.2110963398457</v>
       </c>
       <c r="M14" t="n">
-        <v>492.0508861552418</v>
+        <v>243.072995426793</v>
       </c>
       <c r="N14" t="n">
-        <v>567.3787792909342</v>
+        <v>318.4008885624854</v>
       </c>
       <c r="O14" t="n">
-        <v>753.991733276989</v>
+        <v>505.0138425485402</v>
       </c>
       <c r="P14" t="n">
-        <v>753.991733276989</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q14" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S14" t="n">
-        <v>753.991733276989</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="T14" t="n">
-        <v>753.991733276989</v>
+        <v>692.3241590587561</v>
       </c>
       <c r="U14" t="n">
-        <v>753.991733276989</v>
+        <v>619.5945859884713</v>
       </c>
       <c r="V14" t="n">
-        <v>613.3523660445794</v>
+        <v>619.5945859884713</v>
       </c>
       <c r="W14" t="n">
-        <v>613.3523660445794</v>
+        <v>619.5945859884713</v>
       </c>
       <c r="X14" t="n">
-        <v>613.3523660445794</v>
+        <v>436.1254444312606</v>
       </c>
       <c r="Y14" t="n">
-        <v>613.3523660445794</v>
+        <v>436.1254444312606</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>405.706237906465</v>
+        <v>77.54958997382333</v>
       </c>
       <c r="C15" t="n">
-        <v>396.2417052081841</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="D15" t="n">
-        <v>235.4615889692159</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E15" t="n">
-        <v>235.4615889692159</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F15" t="n">
-        <v>235.4615889692159</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4615889692159</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142029</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097944</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998546</v>
@@ -5376,31 +5376,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R15" t="n">
-        <v>753.991733276989</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073561</v>
+        <v>590.7926280016495</v>
       </c>
       <c r="T15" t="n">
-        <v>703.2188174998586</v>
+        <v>553.598022494152</v>
       </c>
       <c r="U15" t="n">
-        <v>643.5422464454941</v>
+        <v>493.9214514397876</v>
       </c>
       <c r="V15" t="n">
-        <v>580.4102699178836</v>
+        <v>430.789474912177</v>
       </c>
       <c r="W15" t="n">
-        <v>490.9594422169303</v>
+        <v>341.3386472112237</v>
       </c>
       <c r="X15" t="n">
-        <v>451.399189402382</v>
+        <v>301.7783943966754</v>
       </c>
       <c r="Y15" t="n">
-        <v>405.706237906465</v>
+        <v>256.0854429007584</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875849</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>27.18003706804299</v>
+        <v>26.65400701482427</v>
       </c>
       <c r="D16" t="n">
-        <v>59.81599483137651</v>
+        <v>26.65400701482427</v>
       </c>
       <c r="E16" t="n">
-        <v>95.92339654281088</v>
+        <v>62.76140872625865</v>
       </c>
       <c r="F16" t="n">
-        <v>134.7525646580858</v>
+        <v>62.76140872625865</v>
       </c>
       <c r="G16" t="n">
-        <v>134.7525646580858</v>
+        <v>72.11442305991483</v>
       </c>
       <c r="H16" t="n">
-        <v>134.7525646580858</v>
+        <v>84.31505089333203</v>
       </c>
       <c r="I16" t="n">
-        <v>147.9149077823375</v>
+        <v>97.47739401758376</v>
       </c>
       <c r="J16" t="n">
-        <v>205.2444777867948</v>
+        <v>154.806964022041</v>
       </c>
       <c r="K16" t="n">
-        <v>315.2515789605338</v>
+        <v>264.8140651957801</v>
       </c>
       <c r="L16" t="n">
-        <v>315.2515789605338</v>
+        <v>264.8140651957801</v>
       </c>
       <c r="M16" t="n">
-        <v>315.2515789605338</v>
+        <v>264.8140651957801</v>
       </c>
       <c r="N16" t="n">
-        <v>475.2634046764824</v>
+        <v>264.8140651957801</v>
       </c>
       <c r="O16" t="n">
-        <v>475.2634046764824</v>
+        <v>351.8217271348926</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426682</v>
+        <v>470.2946957351834</v>
       </c>
       <c r="Q16" t="n">
         <v>520.7166611426682</v>
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C17" t="n">
-        <v>410.101590504079</v>
+        <v>410.1015905040783</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210054</v>
+        <v>369.3697837210047</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718622</v>
+        <v>294.5907522718616</v>
       </c>
       <c r="F17" t="n">
-        <v>187.770975794055</v>
+        <v>187.7709757940545</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116211</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="J17" t="n">
-        <v>201.6927886515946</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="K17" t="n">
-        <v>336.8774373499203</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="L17" t="n">
-        <v>383.5982798306804</v>
+        <v>117.6741998406933</v>
       </c>
       <c r="M17" t="n">
-        <v>570.2112338167352</v>
+        <v>198.5360989276406</v>
       </c>
       <c r="N17" t="n">
-        <v>645.5391269524276</v>
+        <v>273.863992063333</v>
       </c>
       <c r="O17" t="n">
-        <v>679.7597616450954</v>
+        <v>308.0846267560008</v>
       </c>
       <c r="P17" t="n">
-        <v>679.7597616450954</v>
+        <v>322.3749737650182</v>
       </c>
       <c r="Q17" t="n">
-        <v>679.7597616450954</v>
+        <v>508.987927751073</v>
       </c>
       <c r="R17" t="n">
-        <v>679.7597616450954</v>
+        <v>610.5283920402445</v>
       </c>
       <c r="S17" t="n">
         <v>679.7597616450954</v>
@@ -5549,16 +5549,16 @@
         <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235039</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530771</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122037</v>
+        <v>540.8060308122028</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="G18" t="n">
         <v>176.5329465118933</v>
@@ -5595,10 +5595,10 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142028</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137999</v>
@@ -5613,31 +5613,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.7388050550667</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R18" t="n">
-        <v>747.7388050550667</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S18" t="n">
-        <v>747.7388050550667</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="T18" t="n">
-        <v>557.3368522073422</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="U18" t="n">
-        <v>366.9348993596178</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="V18" t="n">
-        <v>366.9348993596178</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5329465118933</v>
+        <v>420.570329254276</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5329465118933</v>
+        <v>326.7800217387891</v>
       </c>
     </row>
     <row r="19">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961948</v>
+        <v>463.3923242961951</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040795</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210056</v>
+        <v>369.3697837210059</v>
       </c>
       <c r="E20" t="n">
         <v>294.5907522718624</v>
@@ -5741,43 +5741,43 @@
         <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116211</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07983466553978</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="J20" t="n">
-        <v>70.59782661534138</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="K20" t="n">
-        <v>257.2107806013962</v>
+        <v>257.5663113459879</v>
       </c>
       <c r="L20" t="n">
-        <v>303.9316230821563</v>
+        <v>304.2871538267481</v>
       </c>
       <c r="M20" t="n">
-        <v>384.7935221691037</v>
+        <v>385.1490529136954</v>
       </c>
       <c r="N20" t="n">
-        <v>571.4064761551584</v>
+        <v>460.4769460493878</v>
       </c>
       <c r="O20" t="n">
-        <v>605.6271108478262</v>
+        <v>494.6975807420556</v>
       </c>
       <c r="P20" t="n">
-        <v>605.6271108478262</v>
+        <v>632.935603505104</v>
       </c>
       <c r="Q20" t="n">
-        <v>605.6271108478262</v>
+        <v>632.935603505104</v>
       </c>
       <c r="R20" t="n">
-        <v>707.1675751369976</v>
+        <v>632.935603505104</v>
       </c>
       <c r="S20" t="n">
-        <v>707.1675751369976</v>
+        <v>632.935603505104</v>
       </c>
       <c r="T20" t="n">
         <v>707.1675751369976</v>
@@ -5789,13 +5789,13 @@
         <v>730.3229325879306</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235042</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530779</v>
+        <v>626.5008757530783</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122037</v>
+        <v>540.806030812204</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>568.5245230084428</v>
+        <v>417.9250478253346</v>
       </c>
       <c r="C21" t="n">
-        <v>379.1122487414065</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="D21" t="n">
-        <v>218.3321325024382</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="E21" t="n">
-        <v>218.3321325024382</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="F21" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G21" t="n">
         <v>68.0850572755424</v>
@@ -5832,7 +5832,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097943</v>
@@ -5850,31 +5850,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="U21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="V21" t="n">
-        <v>753.991733276989</v>
+        <v>608.327000673059</v>
       </c>
       <c r="W21" t="n">
-        <v>753.991733276989</v>
+        <v>608.327000673059</v>
       </c>
       <c r="X21" t="n">
-        <v>568.5245230084428</v>
+        <v>417.9250478253346</v>
       </c>
       <c r="Y21" t="n">
-        <v>568.5245230084428</v>
+        <v>417.9250478253346</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961956</v>
+        <v>463.3923242961944</v>
       </c>
       <c r="C23" t="n">
-        <v>410.10159050408</v>
+        <v>410.1015905040788</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210062</v>
+        <v>369.3697837210053</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718627</v>
+        <v>294.5907522718622</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940555</v>
+        <v>187.7709757940551</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116211</v>
       </c>
       <c r="H23" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993309</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K23" t="n">
-        <v>257.566311345988</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L23" t="n">
-        <v>304.2871538267482</v>
+        <v>61.80067714629993</v>
       </c>
       <c r="M23" t="n">
-        <v>385.1490529136955</v>
+        <v>142.6625762332473</v>
       </c>
       <c r="N23" t="n">
-        <v>571.7620068997505</v>
+        <v>217.9904693689397</v>
       </c>
       <c r="O23" t="n">
-        <v>605.9826415924183</v>
+        <v>252.2111040616074</v>
       </c>
       <c r="P23" t="n">
-        <v>610.5283920402453</v>
+        <v>275.5508156250261</v>
       </c>
       <c r="Q23" t="n">
-        <v>610.5283920402453</v>
+        <v>462.1637696110809</v>
       </c>
       <c r="R23" t="n">
-        <v>610.5283920402453</v>
+        <v>563.7042339002523</v>
       </c>
       <c r="S23" t="n">
-        <v>679.7597616450962</v>
+        <v>632.9356035051032</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9917332769897</v>
+        <v>707.1675751369968</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769897</v>
+        <v>753.9917332769882</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879314</v>
+        <v>730.32293258793</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235049</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
-        <v>626.500875753079</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122047</v>
+        <v>540.8060308122033</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>218.3321325024382</v>
+        <v>389.2928897972665</v>
       </c>
       <c r="C24" t="n">
-        <v>218.3321325024382</v>
+        <v>389.2928897972665</v>
       </c>
       <c r="D24" t="n">
-        <v>218.3321325024382</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="E24" t="n">
-        <v>218.3321325024382</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="F24" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G24" t="n">
-        <v>68.08505727554241</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H24" t="n">
-        <v>68.08505727554241</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08505727554241</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J24" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142019</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137999</v>
       </c>
       <c r="N24" t="n">
         <v>538.6656803998546</v>
@@ -6090,28 +6090,28 @@
         <v>747.0528889596546</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596546</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596546</v>
+        <v>579.694842644991</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0528889596546</v>
+        <v>579.694842644991</v>
       </c>
       <c r="U24" t="n">
-        <v>599.1360381978876</v>
+        <v>579.694842644991</v>
       </c>
       <c r="V24" t="n">
-        <v>408.7340853501629</v>
+        <v>389.2928897972665</v>
       </c>
       <c r="W24" t="n">
-        <v>408.7340853501629</v>
+        <v>389.2928897972665</v>
       </c>
       <c r="X24" t="n">
-        <v>218.3321325024382</v>
+        <v>389.2928897972665</v>
       </c>
       <c r="Y24" t="n">
-        <v>218.3321325024382</v>
+        <v>389.2928897972665</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.898422489611</v>
+        <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874104</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942525</v>
       </c>
       <c r="E26" t="n">
-        <v>597.663758335026</v>
+        <v>597.6637583350251</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471346</v>
+        <v>406.0329511471336</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141572</v>
+        <v>198.6052517141563</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845025</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
         <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523997</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581081</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347172</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1237.067140508169</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="C27" t="n">
-        <v>1237.067140508169</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="D27" t="n">
-        <v>1237.067140508169</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="E27" t="n">
-        <v>1237.067140508169</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="F27" t="n">
-        <v>1237.067140508169</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="G27" t="n">
-        <v>1147.078938957301</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="H27" t="n">
-        <v>1147.078938957301</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="I27" t="n">
-        <v>1038.631049720951</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="J27" t="n">
-        <v>1038.631049720951</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>1076.594375736831</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L27" t="n">
-        <v>1193.927294865205</v>
+        <v>191.2129445593966</v>
       </c>
       <c r="M27" t="n">
-        <v>1375.60394146921</v>
+        <v>372.889591163402</v>
       </c>
       <c r="N27" t="n">
-        <v>1580.50891787997</v>
+        <v>577.7945675741612</v>
       </c>
       <c r="O27" t="n">
-        <v>1712.209857499004</v>
+        <v>709.4955071931956</v>
       </c>
       <c r="P27" t="n">
-        <v>1795.834970757104</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>1788.89612643977</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="R27" t="n">
-        <v>1788.89612643977</v>
+        <v>650.101169276307</v>
       </c>
       <c r="S27" t="n">
-        <v>1788.89612643977</v>
+        <v>650.101169276307</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.753779363517</v>
+        <v>432.9588222000542</v>
       </c>
       <c r="U27" t="n">
-        <v>1332.129466740397</v>
+        <v>408.9756717223899</v>
       </c>
       <c r="V27" t="n">
-        <v>1304.690910789487</v>
+        <v>372.1868544519183</v>
       </c>
       <c r="W27" t="n">
-        <v>1250.933503665234</v>
+        <v>318.4294473276651</v>
       </c>
       <c r="X27" t="n">
-        <v>1247.066671427386</v>
+        <v>98.9214529443615</v>
       </c>
       <c r="Y27" t="n">
-        <v>1237.067140508169</v>
+        <v>88.92192202514468</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514208</v>
+        <v>109.7289890376408</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514208</v>
+        <v>154.0651248785208</v>
       </c>
       <c r="H28" t="n">
-        <v>83.10044875578312</v>
+        <v>201.2488742191619</v>
       </c>
       <c r="I28" t="n">
-        <v>83.10044875578312</v>
+        <v>201.2488742191619</v>
       </c>
       <c r="J28" t="n">
-        <v>83.10044875578312</v>
+        <v>201.2488742191619</v>
       </c>
       <c r="K28" t="n">
-        <v>83.10044875578312</v>
+        <v>201.2488742191619</v>
       </c>
       <c r="L28" t="n">
-        <v>262.620053688847</v>
+        <v>201.2488742191619</v>
       </c>
       <c r="M28" t="n">
-        <v>262.620053688847</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="N28" t="n">
         <v>266.1625141760094</v>
@@ -6415,19 +6415,19 @@
         <v>233.6068558239875</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032152</v>
+        <v>157.6757382032151</v>
       </c>
       <c r="V28" t="n">
         <v>125.732036525994</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737342</v>
+        <v>48.1300601973734</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389709</v>
+        <v>39.61015627389707</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874115</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942537</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350262</v>
+        <v>597.6637583350255</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471347</v>
+        <v>406.0329511471341</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141574</v>
+        <v>198.6052517141568</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845068</v>
+        <v>63.71974859845005</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
         <v>375.942782452878</v>
@@ -6470,13 +6470,13 @@
         <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581077</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
         <v>1654.882514315173</v>
@@ -6497,16 +6497,16 @@
         <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
         <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35.91669941514208</v>
+        <v>256.4679005094274</v>
       </c>
       <c r="C30" t="n">
-        <v>35.91669941514208</v>
+        <v>256.4679005094274</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91669941514208</v>
+        <v>256.4679005094274</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514208</v>
+        <v>256.4679005094274</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514208</v>
+        <v>256.4679005094274</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514208</v>
+        <v>106.2208252825316</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514208</v>
+        <v>106.2208252825316</v>
       </c>
       <c r="I30" t="n">
         <v>35.91669941514208</v>
@@ -6543,49 +6543,49 @@
         <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102249</v>
+        <v>73.88002543102247</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634021</v>
+        <v>372.889591163402</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741613</v>
+        <v>577.7945675741612</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931957</v>
+        <v>709.4955071931956</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512957</v>
+        <v>793.1206204512955</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512957</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="R30" t="n">
-        <v>657.0400135936416</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="S30" t="n">
-        <v>463.5139617552534</v>
+        <v>592.655724295573</v>
       </c>
       <c r="T30" t="n">
-        <v>462.0127768244561</v>
+        <v>591.1545393647757</v>
       </c>
       <c r="U30" t="n">
-        <v>222.3884642013362</v>
+        <v>567.1713888871114</v>
       </c>
       <c r="V30" t="n">
-        <v>103.5404696964602</v>
+        <v>324.0916707907455</v>
       </c>
       <c r="W30" t="n">
-        <v>49.78306257220704</v>
+        <v>270.3342636664923</v>
       </c>
       <c r="X30" t="n">
-        <v>45.91623033435891</v>
+        <v>266.4674314286442</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.91669941514208</v>
+        <v>256.4679005094274</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42585097558462</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C31" t="n">
-        <v>71.42585097558462</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D31" t="n">
-        <v>71.42585097558462</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E31" t="n">
-        <v>71.42585097558462</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F31" t="n">
-        <v>71.42585097558462</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G31" t="n">
-        <v>71.42585097558462</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H31" t="n">
-        <v>86.64290924294551</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I31" t="n">
-        <v>86.64290924294551</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J31" t="n">
-        <v>86.64290924294551</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K31" t="n">
-        <v>86.64290924294551</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L31" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M31" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N31" t="n">
-        <v>266.1625141760094</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760094</v>
+        <v>210.162507276104</v>
       </c>
       <c r="P31" t="n">
         <v>266.1625141760094</v>
@@ -6710,13 +6710,13 @@
         <v>929.2471211596885</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.36260372134</v>
+        <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338637</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>460.8572095568996</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="C33" t="n">
-        <v>460.8572095568996</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="D33" t="n">
-        <v>300.0770933179314</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="E33" t="n">
-        <v>162.6663398336119</v>
+        <v>196.0884757266969</v>
       </c>
       <c r="F33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G33" t="n">
-        <v>162.6663398336119</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H33" t="n">
         <v>35.660759443941</v>
@@ -6783,7 +6783,7 @@
         <v>73.6240854598214</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881956</v>
+        <v>190.9570045881955</v>
       </c>
       <c r="M33" t="n">
         <v>372.633651192201</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800946</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="T33" t="n">
-        <v>575.7223334038418</v>
+        <v>785.2607218045531</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5752534987677</v>
+        <v>762.1136418994789</v>
       </c>
       <c r="V33" t="n">
-        <v>525.9727681204474</v>
+        <v>735.5111565211587</v>
       </c>
       <c r="W33" t="n">
-        <v>473.0514315687844</v>
+        <v>466.11258725145</v>
       </c>
       <c r="X33" t="n">
-        <v>470.0206699035264</v>
+        <v>246.6045928681464</v>
       </c>
       <c r="Y33" t="n">
-        <v>460.8572095568996</v>
+        <v>196.0884757266969</v>
       </c>
     </row>
     <row r="34">
@@ -6835,46 +6835,46 @@
         <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>83.0374860686449</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D34" t="n">
-        <v>83.0374860686449</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>154.9474420554987</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>154.9474420554987</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>154.9474420554987</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>154.9474420554987</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="L34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="M34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="N34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="O34" t="n">
-        <v>203.9123394551698</v>
+        <v>35.660759443941</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966775</v>
+        <v>189.9362823196511</v>
       </c>
       <c r="Q34" t="n">
         <v>260.0540801966775</v>
@@ -6944,22 +6944,22 @@
         <v>502.7567448750735</v>
       </c>
       <c r="M35" t="n">
-        <v>583.6186439620209</v>
+        <v>583.6186439620208</v>
       </c>
       <c r="N35" t="n">
-        <v>761.3123534239638</v>
+        <v>841.4748452383492</v>
       </c>
       <c r="O35" t="n">
-        <v>795.5329881166316</v>
+        <v>875.695479931017</v>
       </c>
       <c r="P35" t="n">
-        <v>795.5329881166316</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="Q35" t="n">
-        <v>976.0569450232899</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="R35" t="n">
-        <v>976.0569450232899</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="S35" t="n">
         <v>1020.153696984132</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>85.23918323113043</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C36" t="n">
-        <v>85.23918323113043</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D36" t="n">
-        <v>85.23918323113043</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E36" t="n">
-        <v>85.23918323113043</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
         <v>20.8368647496023</v>
@@ -7044,22 +7044,22 @@
         <v>771.1019414684215</v>
       </c>
       <c r="T36" t="n">
-        <v>553.9595943921687</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="U36" t="n">
-        <v>553.9595943921687</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="V36" t="n">
-        <v>310.8798762958028</v>
+        <v>528.0222233720556</v>
       </c>
       <c r="W36" t="n">
-        <v>310.8798762958028</v>
+        <v>264.9304967356629</v>
       </c>
       <c r="X36" t="n">
-        <v>310.8798762958028</v>
+        <v>45.42250235235923</v>
       </c>
       <c r="Y36" t="n">
-        <v>85.23918323113043</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="37">
@@ -7078,19 +7078,19 @@
         <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
         <v>56.03780166411087</v>
@@ -7172,34 +7172,34 @@
         <v>51.57576979998706</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998706</v>
+        <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>51.57576979998706</v>
+        <v>432.898518087516</v>
       </c>
       <c r="L38" t="n">
-        <v>98.29661228074721</v>
+        <v>479.6193605682762</v>
       </c>
       <c r="M38" t="n">
-        <v>179.1585113676945</v>
+        <v>560.4812596552235</v>
       </c>
       <c r="N38" t="n">
-        <v>437.014712644023</v>
+        <v>635.809152790916</v>
       </c>
       <c r="O38" t="n">
-        <v>694.8709139203515</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="P38" t="n">
-        <v>943.7478503389693</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="Q38" t="n">
-        <v>943.7478503389693</v>
+        <v>850.5537443902421</v>
       </c>
       <c r="R38" t="n">
-        <v>1020.153696984132</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S38" t="n">
-        <v>1020.153696984132</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T38" t="n">
         <v>1020.153696984132</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>538.416473162636</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="C39" t="n">
-        <v>538.416473162636</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="D39" t="n">
-        <v>377.6363569236677</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="E39" t="n">
-        <v>377.6363569236677</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="F39" t="n">
-        <v>377.6363569236677</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="G39" t="n">
-        <v>227.3892816967719</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="H39" t="n">
-        <v>129.2847539859532</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8368647496023</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="J39" t="n">
         <v>20.8368647496023</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857558</v>
+        <v>727.5902043706119</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857558</v>
+        <v>534.0641525322237</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857558</v>
+        <v>316.9218054559709</v>
       </c>
       <c r="U39" t="n">
-        <v>538.416473162636</v>
+        <v>316.9218054559709</v>
       </c>
       <c r="V39" t="n">
-        <v>538.416473162636</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="W39" t="n">
-        <v>538.416473162636</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="X39" t="n">
-        <v>538.416473162636</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="Y39" t="n">
-        <v>538.416473162636</v>
+        <v>73.84208735960492</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>20.8368647496023</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411087</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L40" t="n">
         <v>56.03780166411087</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753167</v>
+        <v>818.426354275317</v>
       </c>
       <c r="C41" t="n">
-        <v>708.127638956425</v>
+        <v>708.1276389564251</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465753</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706561</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660726</v>
+        <v>314.773079666073</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K41" t="n">
-        <v>190.6518442323786</v>
+        <v>238.1412535628056</v>
       </c>
       <c r="L41" t="n">
-        <v>434.6471478998387</v>
+        <v>523.461767566887</v>
       </c>
       <c r="M41" t="n">
-        <v>754.1087185101073</v>
+        <v>604.3236666538344</v>
       </c>
       <c r="N41" t="n">
-        <v>829.4366116457998</v>
+        <v>679.6515597895268</v>
       </c>
       <c r="O41" t="n">
-        <v>1102.256917861789</v>
+        <v>952.4718660055158</v>
       </c>
       <c r="P41" t="n">
-        <v>1325.915536757532</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.915536757532</v>
+        <v>1325.915536757533</v>
       </c>
       <c r="R41" t="n">
         <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262769</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U41" t="n">
         <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582954</v>
+        <v>1215.523540582955</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785752</v>
+        <v>1095.550868785753</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181019</v>
+        <v>952.8480423181021</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>533.6748455145416</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C42" t="n">
-        <v>533.6748455145416</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D42" t="n">
-        <v>372.8947292755734</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E42" t="n">
-        <v>372.8947292755734</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F42" t="n">
-        <v>231.3182733209038</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G42" t="n">
-        <v>81.07119809400798</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H42" t="n">
-        <v>81.07119809400798</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07119809400798</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988576</v>
+        <v>66.02930149988578</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7509,31 +7509,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="W42" t="n">
-        <v>759.3155385792139</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="X42" t="n">
-        <v>759.3155385792139</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="Y42" t="n">
-        <v>533.6748455145416</v>
+        <v>752.3766942618796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400537</v>
+        <v>49.22238282385671</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400537</v>
+        <v>49.22238282385671</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400537</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="J43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="K43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="R43" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598926</v>
       </c>
       <c r="S43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T43" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.426354275317</v>
+        <v>818.426354275318</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564252</v>
+        <v>708.1276389564262</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465762</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706559</v>
+        <v>478.6008376706565</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660726</v>
+        <v>314.7730796660731</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="J44" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K44" t="n">
-        <v>190.6518442323786</v>
+        <v>422.5915955308619</v>
       </c>
       <c r="L44" t="n">
-        <v>284.8620960435653</v>
+        <v>707.9121095349433</v>
       </c>
       <c r="M44" t="n">
-        <v>365.7239951305127</v>
+        <v>788.7740086218906</v>
       </c>
       <c r="N44" t="n">
-        <v>679.6515597895263</v>
+        <v>864.1019017575831</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4718660055154</v>
+        <v>952.4718660055158</v>
       </c>
       <c r="P44" t="n">
         <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1325.915536757533</v>
       </c>
       <c r="R44" t="n">
         <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1384.940325262769</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200268</v>
+        <v>1403.298774200269</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889993</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.388888674157</v>
+        <v>1313.388888674158</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582956</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785754</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181031</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>315.8516721126445</v>
+        <v>558.8506424234914</v>
       </c>
       <c r="C45" t="n">
-        <v>315.8516721126445</v>
+        <v>369.4383681564551</v>
       </c>
       <c r="D45" t="n">
-        <v>155.0715558736762</v>
+        <v>369.4383681564551</v>
       </c>
       <c r="E45" t="n">
-        <v>155.0715558736762</v>
+        <v>369.4383681564551</v>
       </c>
       <c r="F45" t="n">
-        <v>155.0715558736762</v>
+        <v>209.0106518736992</v>
       </c>
       <c r="G45" t="n">
-        <v>155.0715558736762</v>
+        <v>58.76357664680341</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06597548400537</v>
+        <v>58.76357664680341</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06597548400537</v>
+        <v>58.76357664680341</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988576</v>
+        <v>66.02930149988578</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>784.5890701945145</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S45" t="n">
-        <v>784.5890701945145</v>
+        <v>584.8050003644364</v>
       </c>
       <c r="T45" t="n">
-        <v>567.4467231182617</v>
+        <v>584.8050003644364</v>
       </c>
       <c r="U45" t="n">
-        <v>567.4467231182617</v>
+        <v>584.8050003644364</v>
       </c>
       <c r="V45" t="n">
-        <v>567.4467231182617</v>
+        <v>584.8050003644364</v>
       </c>
       <c r="W45" t="n">
-        <v>541.4923651773167</v>
+        <v>558.8506424234914</v>
       </c>
       <c r="X45" t="n">
-        <v>541.4923651773167</v>
+        <v>558.8506424234914</v>
       </c>
       <c r="Y45" t="n">
-        <v>315.8516721126445</v>
+        <v>558.8506424234914</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="C46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="D46" t="n">
-        <v>122.934823259123</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="E46" t="n">
-        <v>122.934823259123</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="F46" t="n">
-        <v>122.934823259123</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="G46" t="n">
-        <v>122.934823259123</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="H46" t="n">
-        <v>122.934823259123</v>
+        <v>102.4994933292067</v>
       </c>
       <c r="I46" t="n">
-        <v>122.934823259123</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="J46" t="n">
-        <v>122.934823259123</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="K46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="T46" t="n">
-        <v>130.133623560695</v>
+        <v>130.1336235606951</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323083</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931781</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06597548400537</v>
+        <v>28.06597548400538</v>
       </c>
     </row>
   </sheetData>
@@ -8532,16 +8532,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4735084131581</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.4361383816801</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>173.9674182222222</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100001</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.441042905518287</v>
+        <v>7.441042905518316</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>4.832714589321142</v>
       </c>
       <c r="F11" t="n">
         <v>225.0509854869457</v>
       </c>
       <c r="G11" t="n">
-        <v>240.6899088095807</v>
+        <v>146.6632064815699</v>
       </c>
       <c r="H11" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240823</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
@@ -23321,10 +23321,10 @@
         <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>158.7886658720686</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613485</v>
+        <v>15.63936994613488</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518287</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085684</v>
+        <v>4.832714589321114</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769844</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.02221803283911</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929902</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538043</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675144</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.498545895997637</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>204.1373032653821</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-3.134912803388525e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>330724.4981911723</v>
       </c>
       <c r="C2" t="n">
-        <v>330724.4981911724</v>
+        <v>330724.4981911723</v>
       </c>
       <c r="D2" t="n">
         <v>330915.4933946811</v>
       </c>
       <c r="E2" t="n">
-        <v>284900.7857809251</v>
+        <v>284900.785780925</v>
       </c>
       <c r="F2" t="n">
-        <v>284900.7857809251</v>
+        <v>284900.785780925</v>
       </c>
       <c r="G2" t="n">
+        <v>331394.4558219509</v>
+      </c>
+      <c r="H2" t="n">
         <v>331394.455821951</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>331394.4558219509</v>
+      </c>
+      <c r="J2" t="n">
+        <v>331394.4558219507</v>
+      </c>
+      <c r="K2" t="n">
+        <v>331394.4558219507</v>
+      </c>
+      <c r="L2" t="n">
         <v>331394.4558219511</v>
-      </c>
-      <c r="I2" t="n">
-        <v>331394.455821951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>331394.455821951</v>
-      </c>
-      <c r="K2" t="n">
-        <v>331394.4558219509</v>
-      </c>
-      <c r="L2" t="n">
-        <v>331394.455821951</v>
       </c>
       <c r="M2" t="n">
         <v>331394.4558219509</v>
       </c>
       <c r="N2" t="n">
-        <v>331394.4558219509</v>
+        <v>331394.455821951</v>
       </c>
       <c r="O2" t="n">
-        <v>331394.4558219512</v>
+        <v>331394.455821951</v>
       </c>
       <c r="P2" t="n">
-        <v>331394.4558219511</v>
+        <v>331394.455821951</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262466</v>
+        <v>96101.6933126247</v>
       </c>
       <c r="M3" t="n">
         <v>46197.36629232284</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924373</v>
+        <v>72254.91485924367</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>302020.8786145413</v>
       </c>
       <c r="F4" t="n">
-        <v>302020.8786145413</v>
+        <v>302020.8786145411</v>
       </c>
       <c r="G4" t="n">
         <v>372628.7466577631</v>
@@ -26439,7 +26439,7 @@
         <v>372628.7466577631</v>
       </c>
       <c r="J4" t="n">
-        <v>373436.5296138825</v>
+        <v>373436.5296138824</v>
       </c>
       <c r="K4" t="n">
         <v>373436.5296138824</v>
@@ -26451,13 +26451,13 @@
         <v>372611.8022731853</v>
       </c>
       <c r="N4" t="n">
-        <v>372611.8022731853</v>
+        <v>372611.8022731854</v>
       </c>
       <c r="O4" t="n">
-        <v>372998.864936903</v>
+        <v>372998.8649369031</v>
       </c>
       <c r="P4" t="n">
-        <v>372998.864936903</v>
+        <v>372998.8649369031</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.3387658242</v>
+        <v>38672.33876582419</v>
       </c>
       <c r="J5" t="n">
-        <v>47449.67722016352</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="K5" t="n">
         <v>47449.67722016352</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117271.7279756629</v>
+        <v>-117276.1943598681</v>
       </c>
       <c r="C6" t="n">
-        <v>-117271.7279756629</v>
+        <v>-117276.1943598682</v>
       </c>
       <c r="D6" t="n">
-        <v>-118133.0173776605</v>
+        <v>-118136.2104605089</v>
       </c>
       <c r="E6" t="n">
-        <v>-324889.1649500781</v>
+        <v>-325199.1227503517</v>
       </c>
       <c r="F6" t="n">
-        <v>-45763.04977136398</v>
+        <v>-46073.00757163748</v>
       </c>
       <c r="G6" t="n">
         <v>-175346.1550207697</v>
       </c>
       <c r="H6" t="n">
-        <v>-79906.62960163617</v>
+        <v>-79906.62960163635</v>
       </c>
       <c r="I6" t="n">
-        <v>-79906.6296016363</v>
+        <v>-79906.62960163635</v>
       </c>
       <c r="J6" t="n">
-        <v>-232988.0340189742</v>
+        <v>-232988.0340189744</v>
       </c>
       <c r="K6" t="n">
-        <v>-89491.75101209502</v>
+        <v>-89491.75101209519</v>
       </c>
       <c r="L6" t="n">
         <v>-185453.7247200256</v>
@@ -26555,13 +26555,13 @@
         <v>-128328.0083422446</v>
       </c>
       <c r="N6" t="n">
-        <v>-82130.64204992173</v>
+        <v>-82130.64204992168</v>
       </c>
       <c r="O6" t="n">
-        <v>-157656.4518030688</v>
+        <v>-157656.451803069</v>
       </c>
       <c r="P6" t="n">
-        <v>-85401.53694382514</v>
+        <v>-85401.53694382527</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26808,10 +26808,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.958742689276</v>
+        <v>448.9587426892758</v>
       </c>
       <c r="K4" t="n">
         <v>448.958742689276</v>
@@ -26826,10 +26826,10 @@
         <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500672</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8246935500671</v>
+        <v>350.8246935500672</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407808</v>
+        <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
         <v>57.74670786540355</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929155</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792338</v>
+        <v>185.2986836792337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003833</v>
+        <v>90.36388418003844</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792338</v>
+        <v>185.2986836792337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>351.3166263719594</v>
       </c>
       <c r="I8" t="n">
         <v>256.6898085504863</v>
@@ -27919,7 +27919,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.4154828716409</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="9">
@@ -27935,7 +27935,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>156.3544159936547</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
@@ -27947,13 +27947,13 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>69.83566399273495</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>214.1136647994571</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
         <v>223.3842861340256</v>
@@ -28114,7 +28114,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300929</v>
+        <v>6.785212809893475</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,10 +28123,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>41.58050393937511</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
         <v>178.1482641530678</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>49.06690306114649</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
         <v>125.7355245857741</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>94.06254284591341</v>
       </c>
       <c r="T12" t="n">
-        <v>26.47299028624304</v>
+        <v>26.47299028624307</v>
       </c>
       <c r="U12" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>52.15098759615501</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
         <v>178.1482641530678</v>
@@ -28248,16 +28248,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
+        <v>166.4571809719723</v>
+      </c>
+      <c r="D13" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>141.676141212225</v>
+      </c>
+      <c r="F13" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="D13" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="E13" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="F13" t="n">
-        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28269,25 +28269,25 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
-        <v>152.8404126214562</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
+        <v>67.02998013918996</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="L13" t="n">
-        <v>32.15181624817886</v>
-      </c>
       <c r="M13" t="n">
+        <v>138.8699719176473</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16.52015736928133</v>
+      </c>
+      <c r="O13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="N13" t="n">
-        <v>16.52015736928132</v>
-      </c>
-      <c r="O13" t="n">
-        <v>37.47888399777678</v>
-      </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
@@ -28348,16 +28348,16 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459403</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L14" t="n">
-        <v>74.67716539008875</v>
+        <v>0.05802066359265012</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
-        <v>15.09197235108871</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742193</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28421,13 +28421,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H15" t="n">
-        <v>14.92099816912217</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530678</v>
+        <v>171.6129337606569</v>
       </c>
       <c r="T15" t="n">
         <v>178.1482641530678</v>
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530678</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="F16" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G16" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="G16" t="n">
-        <v>168.7007749271525</v>
-      </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
         <v>178.1482641530678</v>
@@ -28518,16 +28518,16 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N16" t="n">
+        <v>16.52015736928133</v>
+      </c>
+      <c r="O16" t="n">
+        <v>125.3654112090016</v>
+      </c>
+      <c r="P16" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="O16" t="n">
-        <v>37.47888399777678</v>
-      </c>
-      <c r="P16" t="n">
-        <v>104.3909791691233</v>
-      </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K17" t="n">
-        <v>143.27734234663</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108871</v>
+        <v>29.52666629959121</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71173703742193</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
         <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="18">
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6790569344579636</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624304</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764137</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28706,7 +28706,7 @@
         <v>78.20665025776435</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>124.4605099991386</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28755,7 +28755,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O19" t="n">
         <v>37.47888399777678</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J20" t="n">
-        <v>132.8603987118684</v>
+        <v>265.2795522838413</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2251254655482</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108871</v>
+        <v>154.7263387784104</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742193</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823668</v>
       </c>
       <c r="S20" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4658813998192</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="21">
@@ -28883,16 +28883,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890776</v>
@@ -28937,13 +28937,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>103.3102915116726</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>33.70037627360989</v>
+        <v>28.81498112022336</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28992,7 +28992,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777678</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4476709269844</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J23" t="n">
         <v>76.78161896459403</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2251254655484</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,40 +29071,40 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741036</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>19.68363947010589</v>
+        <v>38.66743857676411</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742193</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="24">
@@ -29120,16 +29120,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>160.6261262575649</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>90.79038724273929</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615481</v>
+        <v>52.15098759615501</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.81498112022317</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29229,7 +29229,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O25" t="n">
         <v>37.47888399777678</v>
@@ -29302,7 +29302,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240016</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
         <v>213.484750524001</v>
@@ -29311,7 +29311,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240006</v>
       </c>
       <c r="P26" t="n">
         <v>213.484750524001</v>
@@ -29366,16 +29366,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>59.65628493926808</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.5907913200043</v>
@@ -29408,16 +29408,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.484750524001</v>
+        <v>204.2279918176353</v>
       </c>
       <c r="W27" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.484750524001</v>
@@ -29442,10 +29442,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7007749271525</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H28" t="n">
         <v>213.484750524001</v>
@@ -29460,13 +29460,13 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L28" t="n">
-        <v>213.484750524001</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889343</v>
+        <v>90.78619868863839</v>
       </c>
       <c r="N28" t="n">
-        <v>20.09840028560695</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O28" t="n">
         <v>37.47888399777678</v>
@@ -29603,13 +29603,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>37.76232573527177</v>
       </c>
       <c r="J30" t="n">
         <v>52.47517038390258</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29645,10 +29645,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>122.989406355575</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>213.484750524001</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.484750524001</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29685,7 +29685,7 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
-        <v>181.1951635812937</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I31" t="n">
         <v>164.852968067965</v>
@@ -29697,19 +29697,19 @@
         <v>67.02998013918996</v>
       </c>
       <c r="L31" t="n">
-        <v>213.484750524001</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M31" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777678</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024885</v>
+        <v>115.0442624355068</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29782,7 +29782,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407516</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1953356407516</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29831,19 +29831,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>35.79092589032336</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
         <v>107.3634103439873</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890776</v>
@@ -29879,7 +29879,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="U33" t="n">
         <v>214.3124603908652</v>
@@ -29888,13 +29888,13 @@
         <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3124603908652</v>
+        <v>173.3733301639907</v>
       </c>
     </row>
     <row r="34">
@@ -29907,13 +29907,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3124603908652</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3124603908652</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29925,7 +29925,7 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3124603908652</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
         <v>120.2396075829089</v>
@@ -29940,16 +29940,16 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777678</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1874279320749</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2169859636892</v>
+        <v>198.0430444253321</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
@@ -30010,7 +30010,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L35" t="n">
         <v>213.2680391874428</v>
@@ -30019,22 +30019,22 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.3998144709601</v>
+        <v>184.3720284248849</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108871</v>
+        <v>161.0093633138314</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0591682562687</v>
+        <v>89.71173703742194</v>
       </c>
       <c r="R35" t="n">
         <v>194.8815453823668</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0591682562687</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T35" t="n">
         <v>222.4658813998192</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>95.06514382321549</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30116,7 +30116,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280694968886</v>
@@ -30125,13 +30125,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>199.0445049072962</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>177.232643146072</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30165,7 +30165,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2396075829089</v>
+        <v>155.796109516756</v>
       </c>
       <c r="K37" t="n">
         <v>67.02998013918996</v>
@@ -30177,7 +30177,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O37" t="n">
         <v>37.47888399777678</v>
@@ -30244,10 +30244,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459403</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300929</v>
+        <v>196.6241360743525</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,25 +30256,25 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>184.3720284248849</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8945117006674</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>266.4828172183794</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742193</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998192</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
         <v>272.0591682562687</v>
@@ -30305,7 +30305,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30314,16 +30314,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>28.61204215206359</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,22 +30344,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7198007890776</v>
+        <v>91.64318106224613</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30405,16 +30405,16 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K40" t="n">
-        <v>102.586482073037</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817886</v>
+        <v>67.70831818202591</v>
       </c>
       <c r="M40" t="n">
         <v>25.21686539889343</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O40" t="n">
         <v>37.47888399777678</v>
@@ -30481,16 +30481,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78161896459403</v>
+      </c>
+      <c r="K41" t="n">
+        <v>218.9244427309476</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="K41" t="n">
-        <v>6.727192146300929</v>
-      </c>
-      <c r="L41" t="n">
-        <v>199.2671325118182</v>
-      </c>
       <c r="M41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
-        <v>89.71173703742193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>137.0243603682428</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>18.66274772480546</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
@@ -30560,7 +30560,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890776</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30630,16 +30630,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7007749271525</v>
+        <v>190.0708833512447</v>
       </c>
       <c r="H43" t="n">
         <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>164.852968067965</v>
+        <v>241.009769215476</v>
       </c>
       <c r="J43" t="n">
-        <v>223.3382420038076</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
         <v>67.02998013918996</v>
@@ -30651,7 +30651,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O43" t="n">
         <v>37.47888399777678</v>
@@ -30666,7 +30666,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30721,19 +30721,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
-        <v>6.727192146300929</v>
+        <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>47.96910033376422</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>241.009769215476</v>
+        <v>54.69629248006565</v>
       </c>
       <c r="P44" t="n">
         <v>241.009769215476</v>
@@ -30776,28 +30776,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>22.08454523273252</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,16 +30818,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.0457827266897</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30858,7 +30858,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>241.009769215476</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30870,16 +30870,16 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H46" t="n">
-        <v>165.8243976546666</v>
+        <v>241.009769215476</v>
       </c>
       <c r="I46" t="n">
-        <v>164.852968067965</v>
+        <v>192.7662309280543</v>
       </c>
       <c r="J46" t="n">
         <v>120.2396075829089</v>
       </c>
       <c r="K46" t="n">
-        <v>74.30149559532325</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L46" t="n">
         <v>32.15181624817886</v>
@@ -30888,7 +30888,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O46" t="n">
         <v>37.47888399777678</v>
@@ -31753,16 +31753,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I11" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K11" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L11" t="n">
         <v>64.18332941727859</v>
@@ -31780,19 +31780,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R11" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
         <v>35.13987592000174</v>
@@ -31850,13 +31850,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q12" t="n">
         <v>27.77822605795504</v>
@@ -31868,7 +31868,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31914,7 +31914,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602957</v>
@@ -31923,16 +31923,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P13" t="n">
         <v>22.0653130122126</v>
@@ -31941,16 +31941,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S13" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,16 +31990,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K14" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L14" t="n">
         <v>64.18332941727859</v>
@@ -32017,19 +32017,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R14" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,10 +32072,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
         <v>35.13987592000174</v>
@@ -32087,13 +32087,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q15" t="n">
         <v>27.77822605795504</v>
@@ -32105,7 +32105,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32151,7 +32151,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602957</v>
@@ -32160,16 +32160,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P16" t="n">
         <v>22.0653130122126</v>
@@ -32178,16 +32178,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S16" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,16 +32227,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I17" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K17" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L17" t="n">
         <v>64.18332941727859</v>
@@ -32254,19 +32254,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R17" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
         <v>35.13987592000174</v>
@@ -32324,13 +32324,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795504</v>
@@ -32342,7 +32342,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32388,7 +32388,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
@@ -32397,16 +32397,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P19" t="n">
         <v>22.0653130122126</v>
@@ -32415,16 +32415,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S19" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,16 +32464,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K20" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L20" t="n">
         <v>64.18332941727859</v>
@@ -32491,19 +32491,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
         <v>35.13987592000174</v>
@@ -32561,13 +32561,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795504</v>
@@ -32579,7 +32579,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32625,7 +32625,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
@@ -32634,16 +32634,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P22" t="n">
         <v>22.0653130122126</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S22" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,16 +32701,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I23" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K23" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L23" t="n">
         <v>64.18332941727859</v>
@@ -32728,19 +32728,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R23" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
         <v>35.13987592000174</v>
@@ -32798,13 +32798,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795504</v>
@@ -32816,7 +32816,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32862,7 +32862,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602957</v>
@@ -32871,16 +32871,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P25" t="n">
         <v>22.0653130122126</v>
@@ -32889,16 +32889,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S25" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,16 +32938,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I26" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K26" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L26" t="n">
         <v>64.18332941727859</v>
@@ -32965,19 +32965,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R26" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,10 +33020,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
         <v>35.13987592000174</v>
@@ -33035,13 +33035,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795504</v>
@@ -33053,7 +33053,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33099,7 +33099,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602957</v>
@@ -33108,16 +33108,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P28" t="n">
         <v>22.0653130122126</v>
@@ -33126,16 +33126,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S28" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,16 +33175,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I29" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K29" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L29" t="n">
         <v>64.18332941727859</v>
@@ -33202,19 +33202,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R29" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
         <v>35.13987592000174</v>
@@ -33272,13 +33272,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795504</v>
@@ -33290,7 +33290,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33336,7 +33336,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602957</v>
@@ -33345,16 +33345,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P31" t="n">
         <v>22.0653130122126</v>
@@ -33363,16 +33363,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S31" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,16 +33412,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I32" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K32" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L32" t="n">
         <v>64.18332941727859</v>
@@ -33439,19 +33439,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R32" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
         <v>35.13987592000174</v>
@@ -33509,13 +33509,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795504</v>
@@ -33527,7 +33527,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375088</v>
@@ -33573,7 +33573,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602957</v>
@@ -33582,16 +33582,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P34" t="n">
         <v>22.0653130122126</v>
@@ -33600,16 +33600,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S34" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,16 +33649,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I35" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K35" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L35" t="n">
         <v>64.18332941727859</v>
@@ -33676,19 +33676,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R35" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,10 +33731,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
         <v>35.13987592000174</v>
@@ -33746,13 +33746,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795504</v>
@@ -33764,7 +33764,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375088</v>
@@ -33810,7 +33810,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602957</v>
@@ -33819,16 +33819,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P37" t="n">
         <v>22.0653130122126</v>
@@ -33837,16 +33837,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S37" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,16 +33886,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I38" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K38" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L38" t="n">
         <v>64.18332941727859</v>
@@ -33913,19 +33913,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R38" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
         <v>35.13987592000174</v>
@@ -33983,13 +33983,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795504</v>
@@ -34001,7 +34001,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375088</v>
@@ -34047,7 +34047,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602957</v>
@@ -34056,16 +34056,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P40" t="n">
         <v>22.0653130122126</v>
@@ -34074,16 +34074,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S40" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,16 +34123,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I41" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K41" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L41" t="n">
         <v>64.18332941727859</v>
@@ -34150,19 +34150,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R41" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
         <v>35.13987592000174</v>
@@ -34220,13 +34220,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795504</v>
@@ -34238,7 +34238,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375088</v>
@@ -34284,7 +34284,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602957</v>
@@ -34293,16 +34293,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P43" t="n">
         <v>22.0653130122126</v>
@@ -34311,16 +34311,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S43" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,16 +34360,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I44" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K44" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L44" t="n">
         <v>64.18332941727859</v>
@@ -34387,19 +34387,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R44" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
         <v>35.13987592000174</v>
@@ -34457,13 +34457,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795504</v>
@@ -34475,7 +34475,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375088</v>
@@ -34521,7 +34521,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602957</v>
@@ -34530,16 +34530,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P46" t="n">
         <v>22.0653130122126</v>
@@ -34548,16 +34548,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S46" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -35215,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.05802066359253809</v>
       </c>
       <c r="L11" t="n">
         <v>47.19277018258602</v>
@@ -35419,16 +35419,16 @@
         <v>81.67868594641143</v>
       </c>
       <c r="N11" t="n">
+        <v>76.08878094514385</v>
+      </c>
+      <c r="O11" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="O11" t="n">
-        <v>76.14680160873651</v>
       </c>
       <c r="P11" t="n">
         <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564587</v>
+        <v>88.43652711564586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L12" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M12" t="n">
         <v>183.5117642464701</v>
@@ -35544,16 +35544,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109545</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235709</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084281</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462115</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>13.29529608510276</v>
       </c>
       <c r="J13" t="n">
-        <v>32.60080503854729</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541744</v>
+        <v>113.6531065187538</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067669</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>121.8699355726748</v>
+        <v>47.25079084617867</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N14" t="n">
         <v>76.08878094514385</v>
@@ -35662,10 +35662,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543486</v>
       </c>
       <c r="L15" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
         <v>183.5117642464701</v>
@@ -35778,25 +35778,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>11.69108318109545</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235709</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>36.47212294084281</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462115</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915332</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840122</v>
       </c>
       <c r="I16" t="n">
         <v>13.29529608510276</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>87.8865272112248</v>
       </c>
       <c r="P16" t="n">
-        <v>45.91238026887448</v>
+        <v>119.6696652528189</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937859</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,19 +35878,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43790171150843</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>136.550150200329</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>47.19277018258602</v>
       </c>
       <c r="M17" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N17" t="n">
         <v>76.08878094514385</v>
@@ -35899,19 +35899,19 @@
         <v>34.5662976693614</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>14.43469394850249</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543485</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
         <v>183.5117642464701</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.43790171150843</v>
       </c>
       <c r="J20" t="n">
-        <v>56.07877974727434</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>47.19277018258602</v>
@@ -36130,28 +36130,28 @@
         <v>81.67868594641143</v>
       </c>
       <c r="N20" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O20" t="n">
         <v>34.5662976693614</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>139.6343664273217</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433467</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464701</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.43790171150838</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>188.4979333192474</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>47.19277018258602</v>
@@ -36367,28 +36367,28 @@
         <v>81.67868594641143</v>
       </c>
       <c r="N23" t="n">
-        <v>188.4979333192474</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O23" t="n">
         <v>34.5662976693614</v>
       </c>
       <c r="P23" t="n">
-        <v>4.591667119017176</v>
+        <v>23.57546622567538</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93067636853624</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L24" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464701</v>
+        <v>183.5117642464702</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
@@ -36598,7 +36598,7 @@
         <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.6775207065876</v>
+        <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
         <v>295.1634364704124</v>
@@ -36607,7 +36607,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.051048193362</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163414</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L27" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M27" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
         <v>133.0312521404388</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.55786830555431</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.78397559684849</v>
       </c>
       <c r="H28" t="n">
         <v>47.66035286933438</v>
@@ -36756,13 +36756,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>65.56933328974496</v>
       </c>
       <c r="N28" t="n">
-        <v>3.578242916325629</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L30" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M30" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
         <v>133.0312521404388</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.86782985903287</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.37076592662716</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3329342758221</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,10 +37002,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>56.56566353525795</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.401241336009</v>
+        <v>270.2841165858954</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
@@ -37087,7 +37087,7 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033296</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
         <v>19.43091500849835</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L33" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M33" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
         <v>133.0312521404388</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.85527941889282</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>72.63631917864018</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.45949232290013</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37242,10 +37242,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>56.70882903182602</v>
+        <v>155.8338614906163</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>70.82605846164284</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079269</v>
+        <v>31.04939904079268</v>
       </c>
       <c r="J35" t="n">
         <v>195.2775492916747</v>
@@ -37315,22 +37315,22 @@
         <v>81.67868594641143</v>
       </c>
       <c r="N35" t="n">
-        <v>179.488595416104</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O35" t="n">
         <v>34.5662976693614</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>145.9173909627427</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3474312188468</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M36" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
         <v>133.0312521404388</v>
@@ -37446,22 +37446,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079269</v>
+        <v>31.04939904079268</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>189.8969439280515</v>
       </c>
       <c r="L38" t="n">
         <v>47.19277018258602</v>
@@ -37552,25 +37552,25 @@
         <v>81.67868594641143</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4608093700288</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700288</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P38" t="n">
-        <v>251.3908448672907</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
         <v>77.1776228739019</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
         <v>21.90862676361897</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M39" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
         <v>133.0312521404388</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>212.1972505846467</v>
       </c>
       <c r="L41" t="n">
-        <v>246.4599026944042</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618875</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N41" t="n">
         <v>76.08878094514385</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848375</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
         <v>225.9177968643873</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310922</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M42" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
         <v>133.0312521404388</v>
@@ -37926,16 +37926,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>21.37010842409225</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.15680114751098</v>
       </c>
       <c r="J43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.571724849295452</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>164.228150250882</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.2825770691751</v>
       </c>
       <c r="L44" t="n">
-        <v>95.16187051635023</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
         <v>81.67868594641143</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848375</v>
+        <v>89.26259014942706</v>
       </c>
       <c r="P44" t="n">
         <v>225.9177968643873</v>
@@ -38038,13 +38038,13 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310922</v>
+        <v>46.12822383310919</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702787</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L45" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M45" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9747236472316</v>
+        <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
         <v>133.0312521404388</v>
@@ -38154,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>95.82711896476533</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38166,16 +38166,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>75.18537156080943</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.91326286008925</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.271515456133283</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
